--- a/medicine/Enfance/André_Fernez/André_Fernez.xlsx
+++ b/medicine/Enfance/André_Fernez/André_Fernez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fernez</t>
+          <t>André_Fernez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Fernez, de son vrai nom Désiré Fernez, né le 24 décembre 1917 à Zoeterwoude aux Pays-Bas et mort le 24 avril 1990 à Namur en Wallonie, est un ancien rédacteur en chef du journal Tintin de 1947 à 1959, également écrivain et scénariste de bande dessinée belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fernez</t>
+          <t>André_Fernez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Désiré Fernez naît le 24 décembre 1917 à Zoeterwoude[1], au Pays-Bas mais c'est en Belgique qu'il passera l'essentiel de sa vie[2]. En 1942, il obtient le titre de Docteur en droit de l'Université catholique de Louvain[2]. En 1944, il entre dans l'Administration centrale comme conseiller juridique adjoint[2].
-André Fernez entre au Journal de Tintin en 1953[3] en publiant le roman La 203 de l'aventure, illustré par René Follet, puis il y publie un autre roman Agent secret S-32 illustré par Jean Graton et Édouard Aidans en 1956[3]. 
-André Fernez en devient rédacteur en chef, le 19 septembre 1946, son nom apparaissant pour la première fois dans l'ours du journal no 13, succédant ainsi à Jacques Van Melkebeke[4]. Il écrit le scénario de sa première bande dessinée : un court récit de 8 planches intitulé La Veillée d'Abuna dessiné par Édouard Aidans[3]. Jimmy Stone, qu'il crée en 1959, ce héros récurrent vivra des aventures le temps de sept romans Le Rendez-vous de Santiago,  Les Compagnons de l'enfer (1959), Courrier pour l'Iran (1960), Dans la gueule du loup (1960), Traquenard à Hong-Kong (1960) illustrés par René Follet et L'Ombre d'un homme (1961) illustré par Édouard Aidans avant de devenir un personnage de bande dessinée dans Dispositif guet-apens dont Dino Attanasio assure la création graphique en 1964[3], récit qui sera publié tardivement aux éditions Point Image en noir et blanc en 1997. Entretemps, il publie 7 courts récits historiques mis en image diversement par Paul Ramboux, William Vance, André Beckers, Gill Van Dessel alias Mister Kit et un certain Léonard de 1963 à 1964. Après un dernier article rédactionnel en 1965, sa signature n'apparaît plus dans le journal[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Désiré Fernez naît le 24 décembre 1917 à Zoeterwoude, au Pays-Bas mais c'est en Belgique qu'il passera l'essentiel de sa vie. En 1942, il obtient le titre de Docteur en droit de l'Université catholique de Louvain. En 1944, il entre dans l'Administration centrale comme conseiller juridique adjoint.
+André Fernez entre au Journal de Tintin en 1953 en publiant le roman La 203 de l'aventure, illustré par René Follet, puis il y publie un autre roman Agent secret S-32 illustré par Jean Graton et Édouard Aidans en 1956. 
+André Fernez en devient rédacteur en chef, le 19 septembre 1946, son nom apparaissant pour la première fois dans l'ours du journal no 13, succédant ainsi à Jacques Van Melkebeke. Il écrit le scénario de sa première bande dessinée : un court récit de 8 planches intitulé La Veillée d'Abuna dessiné par Édouard Aidans. Jimmy Stone, qu'il crée en 1959, ce héros récurrent vivra des aventures le temps de sept romans Le Rendez-vous de Santiago,  Les Compagnons de l'enfer (1959), Courrier pour l'Iran (1960), Dans la gueule du loup (1960), Traquenard à Hong-Kong (1960) illustrés par René Follet et L'Ombre d'un homme (1961) illustré par Édouard Aidans avant de devenir un personnage de bande dessinée dans Dispositif guet-apens dont Dino Attanasio assure la création graphique en 1964, récit qui sera publié tardivement aux éditions Point Image en noir et blanc en 1997. Entretemps, il publie 7 courts récits historiques mis en image diversement par Paul Ramboux, William Vance, André Beckers, Gill Van Dessel alias Mister Kit et un certain Léonard de 1963 à 1964. Après un dernier article rédactionnel en 1965, sa signature n'apparaît plus dans le journal.
 André Fernez créé en 1959 Nick Jordan, le héros d'une série de 41 romans, pour la collection de poche « Marabout Junior ».
-Pour certaines publications, il utilise le pseudonyme de André Walk[5], comme notamment pour l'aventure de Nic Perin titrée Huit chevaux en balade, dessinée par Dino Attanasio et publiée dans Femmes d'aujourd'hui du no 987 daté du 18 avril 1964 au no 1016 du 22 octobre 1964, publié tardivement en album aux éditions Pan Pan[6].
-Parallèlement à ces activités André Fernez écrit des dramatiques-télé : La Mort des autres en 1954, Le Train de l'espoir en 1959, Feu Lord Glensdale avec René Goscinny en 1963 ainsi qu'une pièce radiophonique : Facsimilé en 1958 pour laquelle il obtient le Grand Prix des programmes radiophoniques de langue française[2].
-En 1975, André Fernez devient juriste au service de la Sûreté de l'État du Ministère de la Justice[2]. Il écrit encore le scénario du téléfilm Baudoin des mines adapté du roman de Oscar-Paul Gilbert pour la RTBF en 1976[2].
-André Fernez meurt le 24 avril 1990 à Namur à l'âge de 72 ans[1].
+Pour certaines publications, il utilise le pseudonyme de André Walk, comme notamment pour l'aventure de Nic Perin titrée Huit chevaux en balade, dessinée par Dino Attanasio et publiée dans Femmes d'aujourd'hui du no 987 daté du 18 avril 1964 au no 1016 du 22 octobre 1964, publié tardivement en album aux éditions Pan Pan.
+Parallèlement à ces activités André Fernez écrit des dramatiques-télé : La Mort des autres en 1954, Le Train de l'espoir en 1959, Feu Lord Glensdale avec René Goscinny en 1963 ainsi qu'une pièce radiophonique : Facsimilé en 1958 pour laquelle il obtient le Grand Prix des programmes radiophoniques de langue française.
+En 1975, André Fernez devient juriste au service de la Sûreté de l'État du Ministère de la Justice. Il écrit encore le scénario du téléfilm Baudoin des mines adapté du roman de Oscar-Paul Gilbert pour la RTBF en 1976.
+André Fernez meurt le 24 avril 1990 à Namur à l'âge de 72 ans.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Fernez</t>
+          <t>André_Fernez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série des Nick Jordan
+          <t>Série des Nick Jordan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cerveaux à vendre
 Nick Jordan voit rouge
-Virus H 84[7]
+Virus H 84
 Nick Jordan sur le gril 
 Plein feux sur Nick Jordan
 Nick Jordan prend la mouche
@@ -593,11 +613,80 @@
 Corde raide
 La Faute du mort
 Négatif P-224 
-Autres
-Les Coulisses de l'espionnage, illustrations de Pierre Joubert, Marabout, Verviers, 1964
-Sa nouvelle Fac-similé a fait l'objet d'une adaptation radiophonique dans la série Les maîtres du mystère[8].
-Albums de bande dessinée
-C'étaient des hommes, Deligne, Bruxelles, 1976Scénario : Yves Duval - André-Paul Duchâteau - Jacques Stoquart - André Fernez - Dessin : William Vance - Couleurs : noir et blanc – Grand format.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Fernez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Fernez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Coulisses de l'espionnage, illustrations de Pierre Joubert, Marabout, Verviers, 1964
+Sa nouvelle Fac-similé a fait l'objet d'une adaptation radiophonique dans la série Les maîtres du mystère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Fernez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Fernez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C'étaient des hommes, Deligne, Bruxelles, 1976Scénario : Yves Duval - André-Paul Duchâteau - Jacques Stoquart - André Fernez - Dessin : William Vance - Couleurs : noir et blanc – Grand format.
 Jimmy Stone : Dispositif guet-apens, Point Image, 1997Scénario : André Fernez - Dessin : Dino Attanasio - Couleurs : noir et blanc
 Nic Perin : Huit chevaux en balade, Pan Pan, août 2011Scénario : André Fernez - Dessin et couleurs : Dino Attanasio -  (ISBN 978-2-930571-12-6)</t>
         </is>
